--- a/consumo_2.xlsx
+++ b/consumo_2.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dcc-fellowship-ciencia-de-dados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B5038-AB7D-4E96-BA87-2A6E6A0DB99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="26">
   <si>
     <t>Items</t>
   </si>
@@ -40,10 +34,7 @@
     <t xml:space="preserve"> Arroz polido</t>
   </si>
   <si>
-    <t>Feijão-mulatinho</t>
-  </si>
-  <si>
-    <t>Feijão-preto</t>
+    <t>Feijão</t>
   </si>
   <si>
     <t>Farinha de mandioca</t>
@@ -106,8 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,19 +161,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -224,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,27 +239,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,24 +273,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,21 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -540,19 +480,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>18.22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>20.48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -560,19 +500,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>17.940000000000001</v>
+        <v>17.94</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>17.84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -580,19 +520,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>20.329999999999998</v>
+        <v>20.33</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>22.35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -600,19 +540,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>17.05</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>18.96</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -620,19 +560,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>14.7</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>15.58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -640,19 +580,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>24.07</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>27.03</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -660,19 +600,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>0.69</v>
+        <v>1.3</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -680,19 +620,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>0.48</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -700,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>1.47</v>
+        <v>0.58</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -720,19 +660,19 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>0.37</v>
+        <v>1.52</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -740,19 +680,19 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>2.74</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -760,19 +700,19 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>0.47</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>0.68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
       <c r="F13">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -780,19 +720,19 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>1.3</v>
+        <v>2.33</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -800,19 +740,19 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>0.81</v>
+        <v>10.79</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -820,19 +760,19 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>0.57999999999999996</v>
+        <v>3.87</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -840,19 +780,19 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>1.52</v>
+        <v>0.59</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -860,19 +800,19 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>2.74</v>
+        <v>0.41</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -880,19 +820,19 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>0.59</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="D19">
-        <v>0.47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
       <c r="F19">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -900,19 +840,19 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -920,19 +860,19 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>10.79</v>
+        <v>1.24</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -940,19 +880,19 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>3.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -960,19 +900,19 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>0.59</v>
+        <v>1.66</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -980,19 +920,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>0.41</v>
+        <v>7.47</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1000,19 +940,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>1.74</v>
+      </c>
+      <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="D25">
-        <v>0.59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
       <c r="F25">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1020,19 +960,19 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>2.23</v>
+        <v>1.28</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1040,19 +980,19 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>1.24</v>
+        <v>0.87</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1060,19 +1000,19 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>0.81</v>
+        <v>2.54</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1080,19 +1020,19 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>1.66</v>
+        <v>0.78</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1100,19 +1040,19 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>7.47</v>
+        <v>1.05</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>7.39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1120,19 +1060,19 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>0.47</v>
+      </c>
+      <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="D31">
-        <v>1.74</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
       <c r="F31">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1140,19 +1080,19 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>1.28</v>
+        <v>6.05</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1160,19 +1100,19 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>0.87</v>
+        <v>5.81</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1180,19 +1120,19 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>2.54</v>
+        <v>7.13</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1200,19 +1140,19 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>0.78</v>
+        <v>5.49</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1220,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>1.05</v>
+        <v>4.78</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1240,19 +1180,19 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>7.89</v>
+      </c>
+      <c r="E37" t="s">
         <v>20</v>
       </c>
-      <c r="D37">
-        <v>0.47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
       <c r="F37">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1260,19 +1200,19 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>6.05</v>
+        <v>0.95</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1280,19 +1220,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>5.81</v>
+        <v>0.29</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1300,19 +1240,19 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>7.13</v>
+        <v>0.46</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1320,19 +1260,19 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>5.49</v>
+        <v>1.4</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F41">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1340,19 +1280,19 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>4.78</v>
+        <v>1.08</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1360,19 +1300,19 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>0.68</v>
+      </c>
+      <c r="E43" t="s">
         <v>20</v>
       </c>
-      <c r="D43">
-        <v>7.89</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
       <c r="F43">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1380,19 +1320,19 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>0.95</v>
+        <v>4.58</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1400,19 +1340,19 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>0.28999999999999998</v>
+        <v>4.11</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1420,19 +1360,19 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>0.46</v>
+        <v>3.47</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1440,19 +1380,19 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>1.4</v>
+        <v>4.97</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1460,19 +1400,19 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>1.08</v>
+        <v>5.1</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1480,19 +1420,19 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>5.95</v>
+      </c>
+      <c r="E49" t="s">
         <v>20</v>
       </c>
-      <c r="D49">
-        <v>0.68</v>
-      </c>
-      <c r="E49" t="s">
-        <v>21</v>
-      </c>
       <c r="F49">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1500,19 +1440,19 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>4.58</v>
+        <v>2.38</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F50">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1520,19 +1460,19 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>4.1100000000000003</v>
+        <v>2.05</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1540,19 +1480,19 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>3.47</v>
+        <v>2.34</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F52">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1560,19 +1500,19 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>4.97</v>
+        <v>2.53</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1580,19 +1520,19 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>5.0999999999999996</v>
+        <v>2.3</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1600,6135 +1540,5415 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>2.28</v>
+      </c>
+      <c r="E55" t="s">
         <v>20</v>
       </c>
-      <c r="D55">
-        <v>5.95</v>
-      </c>
-      <c r="E55" t="s">
-        <v>21</v>
-      </c>
       <c r="F55">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
       <c r="D56">
-        <v>2.38</v>
+        <v>18.22</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
       <c r="F56">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>2.0499999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
       </c>
       <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>2.34</v>
+        <v>20.33</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
       </c>
       <c r="F58">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>2.5299999999999998</v>
+        <v>17.05</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
       </c>
       <c r="F59">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60">
-        <v>2.2999999999999998</v>
+        <v>14.7</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
       </c>
       <c r="F60">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>2.2799999999999998</v>
+        <v>24.07</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
       </c>
       <c r="F61">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62">
-        <v>18.22</v>
+        <v>1.3</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F62">
-        <v>20.28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>17.940000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F63">
-        <v>19.64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>20.329999999999998</v>
+        <v>0.58</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F64">
-        <v>22.21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>17.05</v>
+        <v>1.52</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F65">
-        <v>16.809999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>14.7</v>
+        <v>2.74</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66">
-        <v>19.329999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>24.07</v>
+        <v>0.47</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F67">
-        <v>32.29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68">
-        <v>0.69</v>
+        <v>2.33</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F68">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>0.48</v>
+        <v>10.79</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F69">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>1.47</v>
+        <v>3.87</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F70">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>0.37</v>
+        <v>0.59</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F71">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F72">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F73">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74">
-        <v>1.3</v>
+        <v>2.23</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F74">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>0.81</v>
+        <v>1.24</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76">
-        <v>0.57999999999999996</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F76">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F77">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>2.74</v>
+        <v>7.47</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F78">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>0.47</v>
+        <v>1.74</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F79">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80">
-        <v>2.33</v>
+        <v>1.28</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F80">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81">
-        <v>10.79</v>
+        <v>0.87</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81">
-        <v>12.01</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>3.87</v>
+        <v>2.54</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82">
-        <v>4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F83">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84">
-        <v>0.41</v>
+        <v>1.05</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F84">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D85">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F85">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86">
-        <v>2.23</v>
+        <v>6.05</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F86">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>1.24</v>
+        <v>5.81</v>
       </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F87">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>0.81</v>
+        <v>7.13</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F88">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89">
-        <v>1.66</v>
+        <v>5.49</v>
       </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F89">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90">
-        <v>7.47</v>
+        <v>4.78</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F90">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91">
-        <v>1.74</v>
+        <v>7.89</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F91">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92">
-        <v>1.28</v>
+        <v>0.95</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F92">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>0.87</v>
+        <v>0.29</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F93">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94">
-        <v>2.54</v>
+        <v>0.46</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F94">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D95">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F95">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F96">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97">
-        <v>0.47</v>
+        <v>0.68</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F97">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98">
-        <v>6.05</v>
+        <v>4.58</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F98">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99">
-        <v>5.81</v>
+        <v>4.11</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F99">
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100">
-        <v>7.13</v>
+        <v>3.47</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F100">
-        <v>7.36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D101">
-        <v>5.49</v>
+        <v>4.97</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F101">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D102">
-        <v>4.78</v>
+        <v>5.1</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F102">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103">
-        <v>7.89</v>
+        <v>5.95</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F103">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104">
-        <v>0.95</v>
+        <v>2.38</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F104">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>0.28999999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F105">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D106">
-        <v>0.46</v>
+        <v>2.34</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F106">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D107">
-        <v>1.4</v>
+        <v>2.53</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F107">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D108">
-        <v>1.08</v>
+        <v>2.3</v>
       </c>
       <c r="E108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F108">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109">
-        <v>0.68</v>
+        <v>2.28</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F109">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110">
-        <v>4.58</v>
+        <v>18.22</v>
       </c>
       <c r="E110" t="s">
         <v>22</v>
       </c>
       <c r="F110">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111">
-        <v>4.1100000000000003</v>
+        <v>17.94</v>
       </c>
       <c r="E111" t="s">
         <v>22</v>
       </c>
       <c r="F111">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112">
-        <v>3.47</v>
+        <v>20.33</v>
       </c>
       <c r="E112" t="s">
         <v>22</v>
       </c>
       <c r="F112">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D113">
-        <v>4.97</v>
+        <v>17.05</v>
       </c>
       <c r="E113" t="s">
         <v>22</v>
       </c>
       <c r="F113">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D114">
-        <v>5.0999999999999996</v>
+        <v>14.7</v>
       </c>
       <c r="E114" t="s">
         <v>22</v>
       </c>
       <c r="F114">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D115">
-        <v>5.95</v>
+        <v>24.07</v>
       </c>
       <c r="E115" t="s">
         <v>22</v>
       </c>
       <c r="F115">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
         <v>14</v>
       </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
       <c r="D116">
-        <v>2.38</v>
+        <v>1.3</v>
       </c>
       <c r="E116" t="s">
         <v>22</v>
       </c>
       <c r="F116">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117">
-        <v>2.0499999999999998</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E117" t="s">
         <v>22</v>
       </c>
       <c r="F117">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118">
-        <v>2.34</v>
+        <v>0.58</v>
       </c>
       <c r="E118" t="s">
         <v>22</v>
       </c>
       <c r="F118">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119">
-        <v>2.5299999999999998</v>
+        <v>1.52</v>
       </c>
       <c r="E119" t="s">
         <v>22</v>
       </c>
       <c r="F119">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120">
-        <v>2.2999999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="E120" t="s">
         <v>22</v>
       </c>
       <c r="F120">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121">
-        <v>2.2799999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="E121" t="s">
         <v>22</v>
       </c>
       <c r="F121">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D122">
-        <v>18.22</v>
+        <v>2.33</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F122">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123">
-        <v>17.940000000000001</v>
+        <v>10.79</v>
       </c>
       <c r="E123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F123">
-        <v>16.940000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124">
-        <v>20.329999999999998</v>
+        <v>3.87</v>
       </c>
       <c r="E124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F124">
-        <v>19.579999999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D125">
-        <v>17.05</v>
+        <v>0.59</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F125">
-        <v>18.670000000000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126">
-        <v>14.7</v>
+        <v>0.41</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F126">
-        <v>15.77</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D127">
-        <v>24.07</v>
+        <v>0.59</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F127">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D128">
-        <v>0.69</v>
+        <v>2.23</v>
       </c>
       <c r="E128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F128">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129">
-        <v>0.48</v>
+        <v>1.24</v>
       </c>
       <c r="E129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F129">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130">
-        <v>1.47</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F130">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D131">
-        <v>0.37</v>
+        <v>1.66</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F131">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D132">
-        <v>0.3</v>
+        <v>7.47</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F132">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D133">
-        <v>0.68</v>
+        <v>1.74</v>
       </c>
       <c r="E133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F133">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D134">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F134">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F135">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D136">
-        <v>0.57999999999999996</v>
+        <v>2.54</v>
       </c>
       <c r="E136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F136">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D137">
-        <v>1.52</v>
+        <v>0.78</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F137">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D138">
-        <v>2.74</v>
+        <v>1.05</v>
       </c>
       <c r="E138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F138">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D139">
         <v>0.47</v>
       </c>
       <c r="E139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F139">
         <v>0.38</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D140">
-        <v>2.33</v>
+        <v>6.05</v>
       </c>
       <c r="E140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F140">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>10.79</v>
+        <v>5.81</v>
       </c>
       <c r="E141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F141">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>3.87</v>
+        <v>7.13</v>
       </c>
       <c r="E142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F142">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D143">
-        <v>0.59</v>
+        <v>5.49</v>
       </c>
       <c r="E143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F143">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D144">
-        <v>0.41</v>
+        <v>4.78</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F144">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145">
-        <v>0.59</v>
+        <v>7.89</v>
       </c>
       <c r="E145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F145">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D146">
-        <v>2.23</v>
+        <v>0.95</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F146">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147">
-        <v>1.24</v>
+        <v>0.29</v>
       </c>
       <c r="E147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F147">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148">
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
       <c r="E148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F148">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D149">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="E149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F149">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D150">
-        <v>7.47</v>
+        <v>1.08</v>
       </c>
       <c r="E150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F150">
-        <v>8.59</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D151">
-        <v>1.74</v>
+        <v>0.68</v>
       </c>
       <c r="E151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152">
-        <v>1.28</v>
+        <v>4.58</v>
       </c>
       <c r="E152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F152">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153">
-        <v>0.87</v>
+        <v>4.11</v>
       </c>
       <c r="E153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F153">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154">
-        <v>2.54</v>
+        <v>3.47</v>
       </c>
       <c r="E154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F154">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155">
-        <v>0.78</v>
+        <v>4.97</v>
       </c>
       <c r="E155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F155">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D156">
-        <v>1.05</v>
+        <v>5.1</v>
       </c>
       <c r="E156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F156">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D157">
-        <v>0.47</v>
+        <v>5.95</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F157">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D158">
-        <v>6.05</v>
+        <v>2.38</v>
       </c>
       <c r="E158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F158">
-        <v>6.64</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159">
-        <v>5.81</v>
+        <v>2.05</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F159">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D160">
-        <v>7.13</v>
+        <v>2.34</v>
       </c>
       <c r="E160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F160">
-        <v>8.18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D161">
-        <v>5.49</v>
+        <v>2.53</v>
       </c>
       <c r="E161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F161">
-        <v>6.44</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D162">
-        <v>4.78</v>
+        <v>2.3</v>
       </c>
       <c r="E162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F162">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163">
-        <v>7.89</v>
+        <v>2.28</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F163">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D164">
-        <v>0.95</v>
+        <v>18.22</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
       </c>
       <c r="F164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D165">
-        <v>0.28999999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="E165" t="s">
         <v>23</v>
       </c>
       <c r="F165">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166">
-        <v>0.46</v>
+        <v>20.33</v>
       </c>
       <c r="E166" t="s">
         <v>23</v>
       </c>
       <c r="F166">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D167">
-        <v>1.4</v>
+        <v>17.05</v>
       </c>
       <c r="E167" t="s">
         <v>23</v>
       </c>
       <c r="F167">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D168">
-        <v>1.08</v>
+        <v>14.7</v>
       </c>
       <c r="E168" t="s">
         <v>23</v>
       </c>
       <c r="F168">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D169">
-        <v>0.68</v>
+        <v>24.07</v>
       </c>
       <c r="E169" t="s">
         <v>23</v>
       </c>
       <c r="F169">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D170">
-        <v>4.58</v>
+        <v>1.3</v>
       </c>
       <c r="E170" t="s">
         <v>23</v>
       </c>
       <c r="F170">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D171">
-        <v>4.1100000000000003</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E171" t="s">
         <v>23</v>
       </c>
       <c r="F171">
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172">
-        <v>3.47</v>
+        <v>0.58</v>
       </c>
       <c r="E172" t="s">
         <v>23</v>
       </c>
       <c r="F172">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D173">
-        <v>4.97</v>
+        <v>1.52</v>
       </c>
       <c r="E173" t="s">
         <v>23</v>
       </c>
       <c r="F173">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D174">
-        <v>5.0999999999999996</v>
+        <v>2.74</v>
       </c>
       <c r="E174" t="s">
         <v>23</v>
       </c>
       <c r="F174">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D175">
-        <v>5.95</v>
+        <v>0.47</v>
       </c>
       <c r="E175" t="s">
         <v>23</v>
       </c>
       <c r="F175">
-        <v>6.23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
         <v>14</v>
       </c>
-      <c r="C176" t="s">
-        <v>15</v>
-      </c>
       <c r="D176">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="E176" t="s">
         <v>23</v>
       </c>
       <c r="F176">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D177">
-        <v>2.0499999999999998</v>
+        <v>10.79</v>
       </c>
       <c r="E177" t="s">
         <v>23</v>
       </c>
       <c r="F177">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D178">
-        <v>2.34</v>
+        <v>3.87</v>
       </c>
       <c r="E178" t="s">
         <v>23</v>
       </c>
       <c r="F178">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D179">
-        <v>2.5299999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="E179" t="s">
         <v>23</v>
       </c>
       <c r="F179">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D180">
-        <v>2.2999999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="E180" t="s">
         <v>23</v>
       </c>
       <c r="F180">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D181">
-        <v>2.2799999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="E181" t="s">
         <v>23</v>
       </c>
       <c r="F181">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D182">
-        <v>18.22</v>
+        <v>2.23</v>
       </c>
       <c r="E182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F182">
-        <v>14.86</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D183">
-        <v>17.940000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="E183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F183">
-        <v>18.649999999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184">
-        <v>20.329999999999998</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F184">
-        <v>14.12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D185">
-        <v>17.05</v>
+        <v>1.66</v>
       </c>
       <c r="E185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F185">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D186">
-        <v>14.7</v>
+        <v>7.47</v>
       </c>
       <c r="E186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F186">
-        <v>12.16</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D187">
-        <v>24.07</v>
+        <v>1.74</v>
       </c>
       <c r="E187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F187">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D188">
-        <v>0.69</v>
+        <v>1.28</v>
       </c>
       <c r="E188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F188">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D189">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
       <c r="E189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F189">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190">
-        <v>1.47</v>
+        <v>2.54</v>
       </c>
       <c r="E190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F190">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D191">
-        <v>0.37</v>
+        <v>0.78</v>
       </c>
       <c r="E191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F191">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D192">
-        <v>0.3</v>
+        <v>1.05</v>
       </c>
       <c r="E192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F192">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D193">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
       <c r="E193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F193">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D194">
-        <v>1.3</v>
+        <v>6.05</v>
       </c>
       <c r="E194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F194">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D195">
-        <v>0.81</v>
+        <v>5.81</v>
       </c>
       <c r="E195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F195">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196">
-        <v>0.57999999999999996</v>
+        <v>7.13</v>
       </c>
       <c r="E196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F196">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D197">
-        <v>1.52</v>
+        <v>5.49</v>
       </c>
       <c r="E197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F197">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D198">
-        <v>2.74</v>
+        <v>4.78</v>
       </c>
       <c r="E198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F198">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D199">
-        <v>0.47</v>
+        <v>7.89</v>
       </c>
       <c r="E199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F199">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D200">
-        <v>2.33</v>
+        <v>0.95</v>
       </c>
       <c r="E200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F200">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D201">
-        <v>10.79</v>
+        <v>0.29</v>
       </c>
       <c r="E201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F201">
-        <v>11.27</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202">
-        <v>3.87</v>
+        <v>0.46</v>
       </c>
       <c r="E202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F202">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D203">
-        <v>0.59</v>
+        <v>1.4</v>
       </c>
       <c r="E203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F203">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D204">
-        <v>0.41</v>
+        <v>1.08</v>
       </c>
       <c r="E204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F204">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D205">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="E205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F205">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D206">
-        <v>2.23</v>
+        <v>4.58</v>
       </c>
       <c r="E206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F206">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D207">
-        <v>1.24</v>
+        <v>4.11</v>
       </c>
       <c r="E207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F207">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D208">
-        <v>0.81</v>
+        <v>3.47</v>
       </c>
       <c r="E208" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F208">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D209">
-        <v>1.66</v>
+        <v>4.97</v>
       </c>
       <c r="E209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F209">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D210">
-        <v>7.47</v>
+        <v>5.1</v>
       </c>
       <c r="E210" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F210">
-        <v>6.47</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D211">
-        <v>1.74</v>
+        <v>5.95</v>
       </c>
       <c r="E211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F211">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D212">
-        <v>1.28</v>
+        <v>2.38</v>
       </c>
       <c r="E212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F212">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D213">
-        <v>0.87</v>
+        <v>2.05</v>
       </c>
       <c r="E213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F213">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D214">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="E214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F214">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D215">
-        <v>0.78</v>
+        <v>2.53</v>
       </c>
       <c r="E215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F215">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D216">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="E216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F216">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D217">
-        <v>0.47</v>
+        <v>2.28</v>
       </c>
       <c r="E217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F217">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D218">
-        <v>6.05</v>
+        <v>18.22</v>
       </c>
       <c r="E218" t="s">
         <v>24</v>
       </c>
       <c r="F218">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D219">
-        <v>5.81</v>
+        <v>17.94</v>
       </c>
       <c r="E219" t="s">
         <v>24</v>
       </c>
       <c r="F219">
-        <v>7.97</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.49</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D220">
-        <v>7.13</v>
+        <v>20.33</v>
       </c>
       <c r="E220" t="s">
         <v>24</v>
       </c>
       <c r="F220">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D221">
-        <v>5.49</v>
+        <v>17.05</v>
       </c>
       <c r="E221" t="s">
         <v>24</v>
       </c>
       <c r="F221">
-        <v>5.41</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D222">
-        <v>4.78</v>
+        <v>14.7</v>
       </c>
       <c r="E222" t="s">
         <v>24</v>
       </c>
       <c r="F222">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D223">
-        <v>7.89</v>
+        <v>24.07</v>
       </c>
       <c r="E223" t="s">
         <v>24</v>
       </c>
       <c r="F223">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D224">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="E224" t="s">
         <v>24</v>
       </c>
       <c r="F224">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D225">
-        <v>0.28999999999999998</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E225" t="s">
         <v>24</v>
       </c>
       <c r="F225">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D226">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="E226" t="s">
         <v>24</v>
       </c>
       <c r="F226">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D227">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="E227" t="s">
         <v>24</v>
       </c>
       <c r="F227">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D228">
-        <v>1.08</v>
+        <v>2.74</v>
       </c>
       <c r="E228" t="s">
         <v>24</v>
       </c>
       <c r="F228">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D229">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
       <c r="E229" t="s">
         <v>24</v>
       </c>
       <c r="F229">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D230">
-        <v>4.58</v>
+        <v>2.33</v>
       </c>
       <c r="E230" t="s">
         <v>24</v>
       </c>
       <c r="F230">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D231">
-        <v>4.1100000000000003</v>
+        <v>10.79</v>
       </c>
       <c r="E231" t="s">
         <v>24</v>
       </c>
       <c r="F231">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D232">
-        <v>3.47</v>
+        <v>3.87</v>
       </c>
       <c r="E232" t="s">
         <v>24</v>
       </c>
       <c r="F232">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D233">
-        <v>4.97</v>
+        <v>0.59</v>
       </c>
       <c r="E233" t="s">
         <v>24</v>
       </c>
       <c r="F233">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D234">
-        <v>5.0999999999999996</v>
+        <v>0.41</v>
       </c>
       <c r="E234" t="s">
         <v>24</v>
       </c>
       <c r="F234">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D235">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="E235" t="s">
         <v>24</v>
       </c>
       <c r="F235">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" t="s">
         <v>14</v>
       </c>
-      <c r="C236" t="s">
-        <v>15</v>
-      </c>
       <c r="D236">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="E236" t="s">
         <v>24</v>
       </c>
       <c r="F236">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D237">
-        <v>2.0499999999999998</v>
+        <v>1.24</v>
       </c>
       <c r="E237" t="s">
         <v>24</v>
       </c>
       <c r="F237">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D238">
-        <v>2.34</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E238" t="s">
         <v>24</v>
       </c>
       <c r="F238">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D239">
-        <v>2.5299999999999998</v>
+        <v>1.66</v>
       </c>
       <c r="E239" t="s">
         <v>24</v>
       </c>
       <c r="F239">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D240">
-        <v>2.2999999999999998</v>
+        <v>7.47</v>
       </c>
       <c r="E240" t="s">
         <v>24</v>
       </c>
       <c r="F240">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D241">
-        <v>2.2799999999999998</v>
+        <v>1.74</v>
       </c>
       <c r="E241" t="s">
         <v>24</v>
       </c>
       <c r="F241">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D242">
-        <v>18.22</v>
+        <v>1.28</v>
       </c>
       <c r="E242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F242">
-        <v>15.57</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D243">
-        <v>17.940000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="E243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F243">
-        <v>16.489999999999998</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D244">
-        <v>20.329999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="E244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F244">
-        <v>15.28</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D245">
-        <v>17.05</v>
+        <v>0.78</v>
       </c>
       <c r="E245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F245">
-        <v>16.760000000000002</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D246">
-        <v>14.7</v>
+        <v>1.05</v>
       </c>
       <c r="E246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F246">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D247">
-        <v>24.07</v>
+        <v>0.47</v>
       </c>
       <c r="E247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F247">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D248">
-        <v>0.69</v>
+        <v>6.05</v>
       </c>
       <c r="E248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F248">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D249">
-        <v>0.48</v>
+        <v>5.81</v>
       </c>
       <c r="E249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F249">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C250" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D250">
-        <v>1.47</v>
+        <v>7.13</v>
       </c>
       <c r="E250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F250">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D251">
-        <v>0.37</v>
+        <v>5.49</v>
       </c>
       <c r="E251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F251">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D252">
-        <v>0.3</v>
+        <v>4.78</v>
       </c>
       <c r="E252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F252">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D253">
-        <v>0.68</v>
+        <v>7.89</v>
       </c>
       <c r="E253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F253">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D254">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="E254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F254">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D255">
-        <v>0.81</v>
+        <v>0.29</v>
       </c>
       <c r="E255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F255">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C256" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D256">
-        <v>0.57999999999999996</v>
+        <v>0.46</v>
       </c>
       <c r="E256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F256">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D257">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="E257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F257">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D258">
-        <v>2.74</v>
+        <v>1.08</v>
       </c>
       <c r="E258" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F258">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D259">
-        <v>0.47</v>
+        <v>0.68</v>
       </c>
       <c r="E259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F259">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D260">
-        <v>2.33</v>
+        <v>4.58</v>
       </c>
       <c r="E260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F260">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D261">
-        <v>10.79</v>
+        <v>4.11</v>
       </c>
       <c r="E261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F261">
-        <v>8.01</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D262">
-        <v>3.87</v>
+        <v>3.47</v>
       </c>
       <c r="E262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F262">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D263">
-        <v>0.59</v>
+        <v>4.97</v>
       </c>
       <c r="E263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F263">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D264">
-        <v>0.41</v>
+        <v>5.1</v>
       </c>
       <c r="E264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F264">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D265">
-        <v>0.59</v>
+        <v>5.95</v>
       </c>
       <c r="E265" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F265">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D266">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="E266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F266">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D267">
-        <v>1.24</v>
+        <v>2.05</v>
       </c>
       <c r="E267" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F267">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D268">
-        <v>0.81</v>
+        <v>2.34</v>
       </c>
       <c r="E268" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F268">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C269" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D269">
-        <v>1.66</v>
+        <v>2.53</v>
       </c>
       <c r="E269" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F269">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D270">
-        <v>7.47</v>
+        <v>2.3</v>
       </c>
       <c r="E270" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F270">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D271">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="E271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F271">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D272">
-        <v>1.28</v>
+        <v>18.22</v>
       </c>
       <c r="E272" t="s">
         <v>25</v>
       </c>
       <c r="F272">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D273">
-        <v>0.87</v>
+        <v>17.94</v>
       </c>
       <c r="E273" t="s">
         <v>25</v>
       </c>
       <c r="F273">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D274">
-        <v>2.54</v>
+        <v>20.33</v>
       </c>
       <c r="E274" t="s">
         <v>25</v>
       </c>
       <c r="F274">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D275">
-        <v>0.78</v>
+        <v>17.05</v>
       </c>
       <c r="E275" t="s">
         <v>25</v>
       </c>
       <c r="F275">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D276">
-        <v>1.05</v>
+        <v>14.7</v>
       </c>
       <c r="E276" t="s">
         <v>25</v>
       </c>
       <c r="F276">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D277">
-        <v>0.47</v>
+        <v>24.07</v>
       </c>
       <c r="E277" t="s">
         <v>25</v>
       </c>
       <c r="F277">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D278">
-        <v>6.05</v>
+        <v>1.3</v>
       </c>
       <c r="E278" t="s">
         <v>25</v>
       </c>
       <c r="F278">
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D279">
-        <v>5.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E279" t="s">
         <v>25</v>
       </c>
       <c r="F279">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D280">
-        <v>7.13</v>
+        <v>0.58</v>
       </c>
       <c r="E280" t="s">
         <v>25</v>
       </c>
       <c r="F280">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C281" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D281">
-        <v>5.49</v>
+        <v>1.52</v>
       </c>
       <c r="E281" t="s">
         <v>25</v>
       </c>
       <c r="F281">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D282">
-        <v>4.78</v>
+        <v>2.74</v>
       </c>
       <c r="E282" t="s">
         <v>25</v>
       </c>
       <c r="F282">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D283">
-        <v>7.89</v>
+        <v>0.47</v>
       </c>
       <c r="E283" t="s">
         <v>25</v>
       </c>
       <c r="F283">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C284" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D284">
-        <v>0.95</v>
+        <v>2.33</v>
       </c>
       <c r="E284" t="s">
         <v>25</v>
       </c>
       <c r="F284">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D285">
-        <v>0.28999999999999998</v>
+        <v>10.79</v>
       </c>
       <c r="E285" t="s">
         <v>25</v>
       </c>
       <c r="F285">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D286">
-        <v>0.46</v>
+        <v>3.87</v>
       </c>
       <c r="E286" t="s">
         <v>25</v>
       </c>
       <c r="F286">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D287">
-        <v>1.4</v>
+        <v>0.59</v>
       </c>
       <c r="E287" t="s">
         <v>25</v>
       </c>
       <c r="F287">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D288">
-        <v>1.08</v>
+        <v>0.41</v>
       </c>
       <c r="E288" t="s">
         <v>25</v>
       </c>
       <c r="F288">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D289">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="E289" t="s">
         <v>25</v>
       </c>
       <c r="F289">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D290">
-        <v>4.58</v>
+        <v>2.23</v>
       </c>
       <c r="E290" t="s">
         <v>25</v>
       </c>
       <c r="F290">
-        <v>4.21</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C291" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D291">
-        <v>4.1100000000000003</v>
+        <v>1.24</v>
       </c>
       <c r="E291" t="s">
         <v>25</v>
       </c>
       <c r="F291">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D292">
-        <v>3.47</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E292" t="s">
         <v>25</v>
       </c>
       <c r="F292">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D293">
-        <v>4.97</v>
+        <v>1.66</v>
       </c>
       <c r="E293" t="s">
         <v>25</v>
       </c>
       <c r="F293">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D294">
-        <v>5.0999999999999996</v>
+        <v>7.47</v>
       </c>
       <c r="E294" t="s">
         <v>25</v>
       </c>
       <c r="F294">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D295">
-        <v>5.95</v>
+        <v>1.74</v>
       </c>
       <c r="E295" t="s">
         <v>25</v>
       </c>
       <c r="F295">
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
         <v>14</v>
       </c>
-      <c r="C296" t="s">
-        <v>15</v>
-      </c>
       <c r="D296">
-        <v>2.38</v>
+        <v>1.28</v>
       </c>
       <c r="E296" t="s">
         <v>25</v>
       </c>
       <c r="F296">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D297">
-        <v>2.0499999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="E297" t="s">
         <v>25</v>
       </c>
       <c r="F297">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D298">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="E298" t="s">
         <v>25</v>
       </c>
       <c r="F298">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C299" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D299">
-        <v>2.5299999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="E299" t="s">
         <v>25</v>
       </c>
       <c r="F299">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D300">
-        <v>2.2999999999999998</v>
+        <v>1.05</v>
       </c>
       <c r="E300" t="s">
         <v>25</v>
       </c>
       <c r="F300">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D301">
-        <v>2.2799999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="E301" t="s">
         <v>25</v>
       </c>
       <c r="F301">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D302">
-        <v>18.22</v>
+        <v>6.05</v>
       </c>
       <c r="E302" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F302">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C303" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D303">
-        <v>17.940000000000001</v>
+        <v>5.81</v>
       </c>
       <c r="E303" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F303">
-        <v>15.87</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D304">
-        <v>20.329999999999998</v>
+        <v>7.13</v>
       </c>
       <c r="E304" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F304">
-        <v>10.86</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D305">
-        <v>17.05</v>
+        <v>5.49</v>
       </c>
       <c r="E305" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F305">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D306">
-        <v>14.7</v>
+        <v>4.78</v>
       </c>
       <c r="E306" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F306">
-        <v>10.46</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D307">
-        <v>24.07</v>
+        <v>7.89</v>
       </c>
       <c r="E307" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F307">
-        <v>12.88</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C308" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D308">
-        <v>0.69</v>
+        <v>0.95</v>
       </c>
       <c r="E308" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F308">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" s="1">
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D309">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="E309" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F309">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C310" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D310">
-        <v>1.47</v>
+        <v>0.46</v>
       </c>
       <c r="E310" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F310">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" s="1">
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D311">
-        <v>0.37</v>
+        <v>1.4</v>
       </c>
       <c r="E311" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F311">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" s="1">
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D312">
-        <v>0.3</v>
+        <v>1.08</v>
       </c>
       <c r="E312" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F312">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="1">
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D313">
         <v>0.68</v>
       </c>
       <c r="E313" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F313">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="1">
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D314">
-        <v>1.3</v>
+        <v>4.58</v>
       </c>
       <c r="E314" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F314">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="1">
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C315" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D315">
-        <v>0.81</v>
+        <v>4.11</v>
       </c>
       <c r="E315" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F315">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="1">
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C316" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D316">
-        <v>0.57999999999999996</v>
+        <v>3.47</v>
       </c>
       <c r="E316" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F316">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="1">
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C317" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D317">
-        <v>1.52</v>
+        <v>4.97</v>
       </c>
       <c r="E317" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F317">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" s="1">
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D318">
-        <v>2.74</v>
+        <v>5.1</v>
       </c>
       <c r="E318" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F318">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" s="1">
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C319" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D319">
-        <v>0.47</v>
+        <v>5.95</v>
       </c>
       <c r="E319" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F319">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" s="1">
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C320" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D320">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="E320" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F320">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C321" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D321">
-        <v>10.79</v>
+        <v>2.05</v>
       </c>
       <c r="E321" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F321">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" s="1">
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C322" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D322">
-        <v>3.87</v>
+        <v>2.34</v>
       </c>
       <c r="E322" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F322">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" s="1">
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C323" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D323">
-        <v>0.59</v>
+        <v>2.53</v>
       </c>
       <c r="E323" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F323">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324" s="1">
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C324" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D324">
-        <v>0.41</v>
+        <v>2.3</v>
       </c>
       <c r="E324" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F324">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325" s="1">
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C325" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D325">
-        <v>0.59</v>
+        <v>2.28</v>
       </c>
       <c r="E325" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F325">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326" t="s">
-        <v>9</v>
-      </c>
-      <c r="C326" t="s">
-        <v>15</v>
-      </c>
-      <c r="D326">
-        <v>2.23</v>
-      </c>
-      <c r="E326" t="s">
-        <v>26</v>
-      </c>
-      <c r="F326">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="B327" t="s">
-        <v>9</v>
-      </c>
-      <c r="C327" t="s">
-        <v>16</v>
-      </c>
-      <c r="D327">
-        <v>1.24</v>
-      </c>
-      <c r="E327" t="s">
-        <v>26</v>
-      </c>
-      <c r="F327">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="B328" t="s">
-        <v>9</v>
-      </c>
-      <c r="C328" t="s">
-        <v>17</v>
-      </c>
-      <c r="D328">
-        <v>0.81</v>
-      </c>
-      <c r="E328" t="s">
-        <v>26</v>
-      </c>
-      <c r="F328">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329" t="s">
-        <v>9</v>
-      </c>
-      <c r="C329" t="s">
-        <v>18</v>
-      </c>
-      <c r="D329">
-        <v>1.66</v>
-      </c>
-      <c r="E329" t="s">
-        <v>26</v>
-      </c>
-      <c r="F329">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330" t="s">
-        <v>9</v>
-      </c>
-      <c r="C330" t="s">
-        <v>19</v>
-      </c>
-      <c r="D330">
-        <v>7.47</v>
-      </c>
-      <c r="E330" t="s">
-        <v>26</v>
-      </c>
-      <c r="F330">
-        <v>6.39</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
-        <v>329</v>
-      </c>
-      <c r="B331" t="s">
-        <v>9</v>
-      </c>
-      <c r="C331" t="s">
-        <v>20</v>
-      </c>
-      <c r="D331">
-        <v>1.74</v>
-      </c>
-      <c r="E331" t="s">
-        <v>26</v>
-      </c>
-      <c r="F331">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
-        <v>330</v>
-      </c>
-      <c r="B332" t="s">
-        <v>10</v>
-      </c>
-      <c r="C332" t="s">
-        <v>15</v>
-      </c>
-      <c r="D332">
-        <v>1.28</v>
-      </c>
-      <c r="E332" t="s">
-        <v>26</v>
-      </c>
-      <c r="F332">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333" t="s">
-        <v>10</v>
-      </c>
-      <c r="C333" t="s">
-        <v>16</v>
-      </c>
-      <c r="D333">
-        <v>0.87</v>
-      </c>
-      <c r="E333" t="s">
-        <v>26</v>
-      </c>
-      <c r="F333">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334" t="s">
-        <v>10</v>
-      </c>
-      <c r="C334" t="s">
-        <v>17</v>
-      </c>
-      <c r="D334">
-        <v>2.54</v>
-      </c>
-      <c r="E334" t="s">
-        <v>26</v>
-      </c>
-      <c r="F334">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335" t="s">
-        <v>10</v>
-      </c>
-      <c r="C335" t="s">
-        <v>18</v>
-      </c>
-      <c r="D335">
-        <v>0.78</v>
-      </c>
-      <c r="E335" t="s">
-        <v>26</v>
-      </c>
-      <c r="F335">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="B336" t="s">
-        <v>10</v>
-      </c>
-      <c r="C336" t="s">
-        <v>19</v>
-      </c>
-      <c r="D336">
-        <v>1.05</v>
-      </c>
-      <c r="E336" t="s">
-        <v>26</v>
-      </c>
-      <c r="F336">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="B337" t="s">
-        <v>10</v>
-      </c>
-      <c r="C337" t="s">
-        <v>20</v>
-      </c>
-      <c r="D337">
-        <v>0.47</v>
-      </c>
-      <c r="E337" t="s">
-        <v>26</v>
-      </c>
-      <c r="F337">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
-        <v>336</v>
-      </c>
-      <c r="B338" t="s">
-        <v>11</v>
-      </c>
-      <c r="C338" t="s">
-        <v>15</v>
-      </c>
-      <c r="D338">
-        <v>6.05</v>
-      </c>
-      <c r="E338" t="s">
-        <v>26</v>
-      </c>
-      <c r="F338">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="B339" t="s">
-        <v>11</v>
-      </c>
-      <c r="C339" t="s">
-        <v>16</v>
-      </c>
-      <c r="D339">
-        <v>5.81</v>
-      </c>
-      <c r="E339" t="s">
-        <v>26</v>
-      </c>
-      <c r="F339">
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
-        <v>338</v>
-      </c>
-      <c r="B340" t="s">
-        <v>11</v>
-      </c>
-      <c r="C340" t="s">
-        <v>17</v>
-      </c>
-      <c r="D340">
-        <v>7.13</v>
-      </c>
-      <c r="E340" t="s">
-        <v>26</v>
-      </c>
-      <c r="F340">
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
-        <v>339</v>
-      </c>
-      <c r="B341" t="s">
-        <v>11</v>
-      </c>
-      <c r="C341" t="s">
-        <v>18</v>
-      </c>
-      <c r="D341">
-        <v>5.49</v>
-      </c>
-      <c r="E341" t="s">
-        <v>26</v>
-      </c>
-      <c r="F341">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
-        <v>340</v>
-      </c>
-      <c r="B342" t="s">
-        <v>11</v>
-      </c>
-      <c r="C342" t="s">
-        <v>19</v>
-      </c>
-      <c r="D342">
-        <v>4.78</v>
-      </c>
-      <c r="E342" t="s">
-        <v>26</v>
-      </c>
-      <c r="F342">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343" t="s">
-        <v>11</v>
-      </c>
-      <c r="C343" t="s">
-        <v>20</v>
-      </c>
-      <c r="D343">
-        <v>7.89</v>
-      </c>
-      <c r="E343" t="s">
-        <v>26</v>
-      </c>
-      <c r="F343">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
-        <v>342</v>
-      </c>
-      <c r="B344" t="s">
-        <v>12</v>
-      </c>
-      <c r="C344" t="s">
-        <v>15</v>
-      </c>
-      <c r="D344">
-        <v>0.95</v>
-      </c>
-      <c r="E344" t="s">
-        <v>26</v>
-      </c>
-      <c r="F344">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
-        <v>343</v>
-      </c>
-      <c r="B345" t="s">
-        <v>12</v>
-      </c>
-      <c r="C345" t="s">
-        <v>16</v>
-      </c>
-      <c r="D345">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E345" t="s">
-        <v>26</v>
-      </c>
-      <c r="F345">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
-        <v>344</v>
-      </c>
-      <c r="B346" t="s">
-        <v>12</v>
-      </c>
-      <c r="C346" t="s">
-        <v>17</v>
-      </c>
-      <c r="D346">
-        <v>0.46</v>
-      </c>
-      <c r="E346" t="s">
-        <v>26</v>
-      </c>
-      <c r="F346">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
-        <v>345</v>
-      </c>
-      <c r="B347" t="s">
-        <v>12</v>
-      </c>
-      <c r="C347" t="s">
-        <v>18</v>
-      </c>
-      <c r="D347">
-        <v>1.4</v>
-      </c>
-      <c r="E347" t="s">
-        <v>26</v>
-      </c>
-      <c r="F347">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
-        <v>346</v>
-      </c>
-      <c r="B348" t="s">
-        <v>12</v>
-      </c>
-      <c r="C348" t="s">
-        <v>19</v>
-      </c>
-      <c r="D348">
-        <v>1.08</v>
-      </c>
-      <c r="E348" t="s">
-        <v>26</v>
-      </c>
-      <c r="F348">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="B349" t="s">
-        <v>12</v>
-      </c>
-      <c r="C349" t="s">
-        <v>20</v>
-      </c>
-      <c r="D349">
-        <v>0.68</v>
-      </c>
-      <c r="E349" t="s">
-        <v>26</v>
-      </c>
-      <c r="F349">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="B350" t="s">
-        <v>13</v>
-      </c>
-      <c r="C350" t="s">
-        <v>15</v>
-      </c>
-      <c r="D350">
-        <v>4.58</v>
-      </c>
-      <c r="E350" t="s">
-        <v>26</v>
-      </c>
-      <c r="F350">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="B351" t="s">
-        <v>13</v>
-      </c>
-      <c r="C351" t="s">
-        <v>16</v>
-      </c>
-      <c r="D351">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="E351" t="s">
-        <v>26</v>
-      </c>
-      <c r="F351">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="B352" t="s">
-        <v>13</v>
-      </c>
-      <c r="C352" t="s">
-        <v>17</v>
-      </c>
-      <c r="D352">
-        <v>3.47</v>
-      </c>
-      <c r="E352" t="s">
-        <v>26</v>
-      </c>
-      <c r="F352">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
-        <v>351</v>
-      </c>
-      <c r="B353" t="s">
-        <v>13</v>
-      </c>
-      <c r="C353" t="s">
-        <v>18</v>
-      </c>
-      <c r="D353">
-        <v>4.97</v>
-      </c>
-      <c r="E353" t="s">
-        <v>26</v>
-      </c>
-      <c r="F353">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="B354" t="s">
-        <v>13</v>
-      </c>
-      <c r="C354" t="s">
-        <v>19</v>
-      </c>
-      <c r="D354">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E354" t="s">
-        <v>26</v>
-      </c>
-      <c r="F354">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="B355" t="s">
-        <v>13</v>
-      </c>
-      <c r="C355" t="s">
-        <v>20</v>
-      </c>
-      <c r="D355">
-        <v>5.95</v>
-      </c>
-      <c r="E355" t="s">
-        <v>26</v>
-      </c>
-      <c r="F355">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="B356" t="s">
-        <v>14</v>
-      </c>
-      <c r="C356" t="s">
-        <v>15</v>
-      </c>
-      <c r="D356">
-        <v>2.38</v>
-      </c>
-      <c r="E356" t="s">
-        <v>26</v>
-      </c>
-      <c r="F356">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357" t="s">
-        <v>14</v>
-      </c>
-      <c r="C357" t="s">
-        <v>16</v>
-      </c>
-      <c r="D357">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E357" t="s">
-        <v>26</v>
-      </c>
-      <c r="F357">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
-        <v>356</v>
-      </c>
-      <c r="B358" t="s">
-        <v>14</v>
-      </c>
-      <c r="C358" t="s">
-        <v>17</v>
-      </c>
-      <c r="D358">
-        <v>2.34</v>
-      </c>
-      <c r="E358" t="s">
-        <v>26</v>
-      </c>
-      <c r="F358">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
-        <v>357</v>
-      </c>
-      <c r="B359" t="s">
-        <v>14</v>
-      </c>
-      <c r="C359" t="s">
-        <v>18</v>
-      </c>
-      <c r="D359">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="E359" t="s">
-        <v>26</v>
-      </c>
-      <c r="F359">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
-        <v>358</v>
-      </c>
-      <c r="B360" t="s">
-        <v>14</v>
-      </c>
-      <c r="C360" t="s">
-        <v>19</v>
-      </c>
-      <c r="D360">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E360" t="s">
-        <v>26</v>
-      </c>
-      <c r="F360">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
-        <v>359</v>
-      </c>
-      <c r="B361" t="s">
-        <v>14</v>
-      </c>
-      <c r="C361" t="s">
-        <v>20</v>
-      </c>
-      <c r="D361">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="E361" t="s">
-        <v>26</v>
-      </c>
-      <c r="F361">
         <v>2.44</v>
       </c>
     </row>
